--- a/1_DatasetCharacteristics/Variables.xlsx
+++ b/1_DatasetCharacteristics/Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Open Campus\Project SOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E55222F-DD1C-4169-87BD-61E0A9F38FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B3A51-85CA-4651-A589-9289A5FC5E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8652CF50-CE55-4EDE-B1FA-BF1E0015A668}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8652CF50-CE55-4EDE-B1FA-BF1E0015A668}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>(Allbritton-King et al., 2022)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Target Variable: Hip fracture risk</t>
   </si>
   <si>
-    <t>BMI</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -68,36 +59,15 @@
     <t>Alcohol</t>
   </si>
   <si>
-    <t>3+ units per day</t>
-  </si>
-  <si>
-    <t>based on BMD</t>
-  </si>
-  <si>
     <t>Rheumatoid Arthritis</t>
   </si>
   <si>
     <t>Gluccocorticoids</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Sclerostin level</t>
   </si>
   <si>
-    <t>(Arasu et al., 2012)</t>
-  </si>
-  <si>
-    <t>(Barbour et al., 2014)</t>
-  </si>
-  <si>
-    <t>IL-6, IL-6 SR, TNF SR1, TNF SR2</t>
-  </si>
-  <si>
     <t>Inflammatory markers</t>
   </si>
   <si>
@@ -107,49 +77,130 @@
     <t>Chair stand speed</t>
   </si>
   <si>
-    <t>(Barbour et al., 2016)</t>
-  </si>
-  <si>
     <t>Thyroid-stimulating hormone</t>
   </si>
   <si>
-    <t>(Bauer et al., 2001)</t>
-  </si>
-  <si>
-    <t>(Bauer et al., 1997)</t>
-  </si>
-  <si>
     <t>T-score/BMD</t>
   </si>
   <si>
     <t>Nonsteroidal anti-inflammatory drugs</t>
   </si>
   <si>
-    <t>(Bauer et al., 1996)</t>
-  </si>
-  <si>
     <t>vertebral deformities</t>
   </si>
   <si>
-    <t>(Black et al., 1999)</t>
-  </si>
-  <si>
     <t>fracture history assessment</t>
   </si>
   <si>
-    <t>(Black et al., 2018)</t>
-  </si>
-  <si>
     <t>Thiazide use</t>
   </si>
   <si>
     <t>estrogen replacement therapy</t>
   </si>
   <si>
-    <t>(Cauley, 1993)</t>
-  </si>
-  <si>
-    <t>(Cauley, 1995)</t>
+    <t>prevalent vertebral fractures</t>
+  </si>
+  <si>
+    <t>exercise at baseline</t>
+  </si>
+  <si>
+    <t>BMI/weight gain/loss</t>
+  </si>
+  <si>
+    <t>previous hip fracture</t>
+  </si>
+  <si>
+    <t>proximal humeral fracture</t>
+  </si>
+  <si>
+    <t>visual field loss</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>femoral neck bone, hip bone, spine, radius, calcaneus</t>
+  </si>
+  <si>
+    <t>estradiol concentrations</t>
+  </si>
+  <si>
+    <t>sex-hormone  binding globulin</t>
+  </si>
+  <si>
+    <t>detectable/undetectable</t>
+  </si>
+  <si>
+    <t>volumetric bone density of the neck</t>
+  </si>
+  <si>
+    <t>self-rated health</t>
+  </si>
+  <si>
+    <t>hyperthyroidism</t>
+  </si>
+  <si>
+    <t>benzodiazepines use/anticonvulsant drugs</t>
+  </si>
+  <si>
+    <t>caffeine intake</t>
+  </si>
+  <si>
+    <t>cognitive impairment (e.g., dementia)</t>
+  </si>
+  <si>
+    <t>low fractional calcium absorption</t>
+  </si>
+  <si>
+    <t>calcium intake</t>
+  </si>
+  <si>
+    <t>body size</t>
+  </si>
+  <si>
+    <t>central nervous system active medications</t>
+  </si>
+  <si>
+    <t>renal function</t>
+  </si>
+  <si>
+    <t>cystatin C</t>
+  </si>
+  <si>
+    <t>hip axis length</t>
+  </si>
+  <si>
+    <t>physical activity</t>
+  </si>
+  <si>
+    <t>nulliparity</t>
+  </si>
+  <si>
+    <t>serum fructosamine level</t>
+  </si>
+  <si>
+    <t>resting heart rate</t>
+  </si>
+  <si>
+    <t>parkinson's desease</t>
+  </si>
+  <si>
+    <t>sleep and nap habits</t>
+  </si>
+  <si>
+    <t>abdominal aortic calcification</t>
+  </si>
+  <si>
+    <t>diabetes mellitus (type II)</t>
+  </si>
+  <si>
+    <t>stroke</t>
   </si>
 </sst>
 </file>
@@ -501,225 +552,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C24CA9-D189-4D3E-AFF7-280765C6B853}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" t="s">
-        <v>14</v>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
